--- a/Finflux Automation Excels/Client/4953-NonWorkSatandSun-AdvanceSettings-MOVEToNextWorkingDay-CENTER-DISBDAILYLOANon01JAN2015.xlsx
+++ b/Finflux Automation Excels/Client/4953-NonWorkSatandSun-AdvanceSettings-MOVEToNextWorkingDay-CENTER-DISBDAILYLOANon01JAN2015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="week Day" sheetId="1" r:id="rId1"/>
@@ -653,7 +653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -793,7 +793,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -832,13 +832,13 @@
       <c r="E2" s="7">
         <v>10000</v>
       </c>
-      <c r="F2" s="9">
-        <v>1572.72</v>
+      <c r="F2" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
-        <v>709.33</v>
+        <v>462.45</v>
       </c>
       <c r="B3" s="8">
         <v>0</v>
@@ -850,10 +850,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="8">
-        <v>709.33</v>
+        <v>462.45</v>
       </c>
       <c r="F3" s="8">
-        <v>204.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -905,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,21 +995,21 @@
         <v>1</v>
       </c>
       <c r="B3" s="8">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="C3" s="10">
-        <v>42037</v>
+        <v>42095</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8">
-        <v>784.92</v>
+        <v>788.49</v>
       </c>
       <c r="G3" s="9">
-        <v>9215.08</v>
+        <v>9211.51</v>
       </c>
       <c r="H3" s="8">
-        <v>103.57</v>
+        <v>100</v>
       </c>
       <c r="I3" s="8">
         <v>0</v>
@@ -1040,21 +1040,21 @@
         <v>2</v>
       </c>
       <c r="B4" s="8">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="C4" s="10">
-        <v>42065</v>
+        <v>42095</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8">
-        <v>787.8</v>
+        <v>888.49</v>
       </c>
       <c r="G4" s="9">
-        <v>8427.2800000000007</v>
+        <v>8323.02</v>
       </c>
       <c r="H4" s="8">
-        <v>100.69</v>
+        <v>0</v>
       </c>
       <c r="I4" s="8">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="8">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C5" s="10">
         <v>42095</v>
@@ -1093,13 +1093,13 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8">
-        <v>789.74</v>
+        <v>888.49</v>
       </c>
       <c r="G5" s="9">
-        <v>7637.54</v>
+        <v>7434.53</v>
       </c>
       <c r="H5" s="8">
-        <v>98.75</v>
+        <v>0</v>
       </c>
       <c r="I5" s="8">
         <v>0</v>
@@ -1138,13 +1138,13 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8">
-        <v>812.11</v>
+        <v>814.14</v>
       </c>
       <c r="G6" s="9">
-        <v>6825.43</v>
+        <v>6620.39</v>
       </c>
       <c r="H6" s="8">
-        <v>76.38</v>
+        <v>74.349999999999994</v>
       </c>
       <c r="I6" s="8">
         <v>0</v>
@@ -1183,13 +1183,13 @@
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8">
-        <v>820.24</v>
+        <v>822.29</v>
       </c>
       <c r="G7" s="9">
-        <v>6005.19</v>
+        <v>5798.1</v>
       </c>
       <c r="H7" s="8">
-        <v>68.25</v>
+        <v>66.2</v>
       </c>
       <c r="I7" s="8">
         <v>0</v>
@@ -1228,13 +1228,13 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8">
-        <v>828.44</v>
+        <v>830.51</v>
       </c>
       <c r="G8" s="9">
-        <v>5176.75</v>
+        <v>4967.59</v>
       </c>
       <c r="H8" s="8">
-        <v>60.05</v>
+        <v>57.98</v>
       </c>
       <c r="I8" s="8">
         <v>0</v>
@@ -1273,13 +1273,13 @@
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8">
-        <v>833.38</v>
+        <v>835.61</v>
       </c>
       <c r="G9" s="9">
-        <v>4343.37</v>
+        <v>4131.9799999999996</v>
       </c>
       <c r="H9" s="8">
-        <v>55.11</v>
+        <v>52.88</v>
       </c>
       <c r="I9" s="8">
         <v>0</v>
@@ -1318,13 +1318,13 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8">
-        <v>839.55</v>
+        <v>841.52</v>
       </c>
       <c r="G10" s="9">
-        <v>3503.82</v>
+        <v>3290.46</v>
       </c>
       <c r="H10" s="8">
-        <v>48.94</v>
+        <v>46.97</v>
       </c>
       <c r="I10" s="8">
         <v>0</v>
@@ -1363,13 +1363,13 @@
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8">
-        <v>853.45</v>
+        <v>855.59</v>
       </c>
       <c r="G11" s="9">
-        <v>2650.37</v>
+        <v>2434.87</v>
       </c>
       <c r="H11" s="8">
-        <v>35.04</v>
+        <v>32.9</v>
       </c>
       <c r="I11" s="8">
         <v>0</v>
@@ -1400,21 +1400,21 @@
         <v>10</v>
       </c>
       <c r="B12" s="8">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="C12" s="10">
-        <v>42310</v>
+        <v>42339</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8">
-        <v>861.1</v>
+        <v>864.14</v>
       </c>
       <c r="G12" s="9">
-        <v>1789.27</v>
+        <v>1570.73</v>
       </c>
       <c r="H12" s="8">
-        <v>27.39</v>
+        <v>24.35</v>
       </c>
       <c r="I12" s="8">
         <v>0</v>
@@ -1445,7 +1445,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="8">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="C13" s="10">
         <v>42339</v>
@@ -1453,13 +1453,13 @@
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8">
-        <v>862.6</v>
+        <v>888.49</v>
       </c>
       <c r="G13" s="8">
-        <v>926.67</v>
+        <v>682.24</v>
       </c>
       <c r="H13" s="8">
-        <v>25.89</v>
+        <v>0</v>
       </c>
       <c r="I13" s="8">
         <v>0</v>
@@ -1498,13 +1498,13 @@
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8">
-        <v>926.67</v>
+        <v>682.24</v>
       </c>
       <c r="G14" s="8">
         <v>0</v>
       </c>
       <c r="H14" s="8">
-        <v>9.27</v>
+        <v>6.82</v>
       </c>
       <c r="I14" s="8">
         <v>0</v>
@@ -1513,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="8">
-        <v>935.94</v>
+        <v>689.06</v>
       </c>
       <c r="L14" s="8">
         <v>0</v>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="P14" s="8"/>
       <c r="Q14" s="8">
-        <v>935.94</v>
+        <v>689.06</v>
       </c>
     </row>
   </sheetData>
